--- a/BI_Lab_2/Book2.xlsx
+++ b/BI_Lab_2/Book2.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mohamed\ITI\ITI-Tasks\BI_Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCFF1CE-A755-48BF-A92B-EA6F71736E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17117A4D-F10A-4849-BC66-FC3ED08F63E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7BEC55C-4057-4682-8737-659692193CB8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="85" r:id="rId2"/>
+    <pivotCache cacheId="28" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
   <si>
     <t>Row Labels</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>Category3</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Accesories</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -1386,6 +1401,1516 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1398,11 +2923,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$B$1:$B$4</c:f>
+              <c:f>tmpB383!$B$1:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2007 - Qty - Category1</c:v>
+                  <c:v>2007 - Ahmed - Qty - Category1 - Accesories - 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1419,52 +2944,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1473,20 +2974,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$B$5:$B$19</c:f>
+              <c:f>tmpB383!$B$8:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -1503,11 +2995,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$C$1:$C$4</c:f>
+              <c:f>tmpB383!$C$1:$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2007 - Qty - Category2</c:v>
+                  <c:v>2007 - Ahmed - Qty - Category2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,52 +3016,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1578,23 +3046,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$C$5:$C$19</c:f>
+              <c:f>tmpB383!$C$8:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1611,11 +3070,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$D$1:$D$4</c:f>
+              <c:f>tmpB383!$D$1:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2007 - Qty - Category3</c:v>
+                  <c:v>2007 - Ahmed - Qty - Category3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1632,52 +3091,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1686,14 +3121,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$D$5:$D$19</c:f>
+              <c:f>tmpB383!$D$8:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -1710,11 +3142,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$E$1:$E$4</c:f>
+              <c:f>tmpB383!$E$1:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2007 - Product ID Distinct Count - Category1</c:v>
+                  <c:v>2007 - Ahmed - Product ID Distinct Count - Category1 - Accesories - 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1731,52 +3163,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1785,20 +3193,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$E$5:$E$19</c:f>
+              <c:f>tmpB383!$E$8:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1815,11 +3214,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$F$1:$F$4</c:f>
+              <c:f>tmpB383!$F$1:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2007 - Product ID Distinct Count - Category2</c:v>
+                  <c:v>2007 - Ahmed - Product ID Distinct Count - Category2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,52 +3235,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1890,23 +3265,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$F$5:$F$19</c:f>
+              <c:f>tmpB383!$F$8:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1923,11 +3289,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$G$1:$G$4</c:f>
+              <c:f>tmpB383!$G$1:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2007 - Product ID Distinct Count - Category3</c:v>
+                  <c:v>2007 - Ahmed - Product ID Distinct Count - Category3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1944,52 +3310,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1998,14 +3340,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$G$5:$G$19</c:f>
+              <c:f>tmpB383!$G$8:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2022,11 +3361,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$H$1:$H$4</c:f>
+              <c:f>tmpB383!$H$1:$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2008 - Qty - Category1</c:v>
+                  <c:v>2007 - khalid - Qty - Category1 - Accesories - 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2045,52 +3384,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2099,27 +3414,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$H$5:$H$19</c:f>
+              <c:f>tmpB383!$H$8:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,11 +3435,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$I$1:$I$4</c:f>
+              <c:f>tmpB383!$I$1:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2008 - Qty - Category2</c:v>
+                  <c:v>2007 - khalid - Qty - Category1 - Clothing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2158,52 +3458,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2212,24 +3488,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$I$5:$I$19</c:f>
+              <c:f>tmpB383!$I$8:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,11 +3512,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$J$1:$J$4</c:f>
+              <c:f>tmpB383!$J$1:$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2008 - Qty - Category3</c:v>
+                  <c:v>2007 - khalid - Qty - Category2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2268,52 +3535,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2322,15 +3565,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$J$5:$J$19</c:f>
+              <c:f>tmpB383!$J$8:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,11 +3586,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$K$1:$K$4</c:f>
+              <c:f>tmpB383!$K$1:$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2008 - Product ID Distinct Count - Category1</c:v>
+                  <c:v>2007 - khalid - Qty - Category3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2369,52 +3609,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2423,27 +3639,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$K$5:$K$19</c:f>
+              <c:f>tmpB383!$K$8:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,11 +3660,11 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$L$1:$L$4</c:f>
+              <c:f>tmpB383!$L$1:$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2008 - Product ID Distinct Count - Category2</c:v>
+                  <c:v>2007 - khalid - Product ID Distinct Count - Category1 - Accesories - 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2482,52 +3683,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2536,23 +3713,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$L$5:$L$19</c:f>
+              <c:f>tmpB383!$L$8:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2569,11 +3734,11 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmpB383!$M$1:$M$4</c:f>
+              <c:f>tmpB383!$M$1:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2008 - Product ID Distinct Count - Category3</c:v>
+                  <c:v>2007 - khalid - Product ID Distinct Count - Category1 - Clothing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2592,52 +3757,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmpB383!$A$5:$A$19</c:f>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
                   <c:pt idx="1">
-                    <c:v>khalid</c:v>
+                    <c:v>Cairo</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>khalid</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Omar</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Ahmed</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Omar</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Algeria</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>Egypt</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
                     <c:v>Moraco</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2646,14 +3787,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmpB383!$M$5:$M$19</c:f>
+              <c:f>tmpB383!$M$8:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="5">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2662,6 +3803,2130 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-5F46-4507-93B5-56331555A520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$N$1:$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - khalid - Product ID Distinct Count - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$N$8:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$O$1:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - khalid - Product ID Distinct Count - Category3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$O$8:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$P$1:$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - Omar - Qty - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$P$8:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$Q$1:$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - Omar - Qty - Category1 - Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$Q$8:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$R$1:$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - Omar - Qty - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$R$8:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$S$1:$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - Omar - Product ID Distinct Count - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$S$8:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$T$1:$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - Omar - Product ID Distinct Count - Category1 - Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$T$8:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$U$1:$U$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2007 - Omar - Product ID Distinct Count - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$U$8:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$V$1:$V$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Ahmed - Qty - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$V$8:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$W$1:$W$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Ahmed - Qty - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$W$8:$W$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$X$1:$X$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Ahmed - Product ID Distinct Count - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$X$8:$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$Y$1:$Y$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Ahmed - Product ID Distinct Count - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$Y$8:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$Z$1:$Z$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Qty - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$Z$8:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AA$1:$AA$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Qty - Category1 - Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AA$8:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AB$1:$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Qty - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AB$8:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AC$1:$AC$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Qty - Category3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AC$8:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AD$1:$AD$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Product ID Distinct Count - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AD$8:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AE$1:$AE$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Product ID Distinct Count - Category1 - Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AE$8:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AF$1:$AF$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Product ID Distinct Count - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AF$8:$AF$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AG$1:$AG$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - khalid - Product ID Distinct Count - Category3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AG$8:$AG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AH$1:$AH$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Qty - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AH$8:$AH$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AI$1:$AI$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Qty - Category1 - Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AI$8:$AI$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AJ$1:$AJ$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Qty - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AJ$8:$AJ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AK$1:$AK$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Qty - Category3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AK$8:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AL$1:$AL$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Product ID Distinct Count - Category1 - Accesories - 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AL$8:$AL$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AM$1:$AM$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Product ID Distinct Count - Category1 - Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AM$8:$AM$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AN$1:$AN$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Product ID Distinct Count - Category2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AN$8:$AN$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-D1D7-4E0F-B70B-DB421A14D93D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmpB383!$AO$1:$AO$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2008 - Omar - Product ID Distinct Count - Category3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>tmpB383!$A$8:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Cairo</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lyon</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Algeria</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Egypt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Moraco</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tmpB383!$AO$8:$AO$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-D1D7-4E0F-B70B-DB421A14D93D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3469,7 +6734,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Help-Desk" refreshedDate="45700.574189120372" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0B4488AB-3BBD-434C-AA17-17BBDC5B2A5E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Help-Desk" refreshedDate="45700.788857638887" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0B4488AB-3BBD-434C-AA17-17BBDC5B2A5E}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="10">
     <cacheField name="[Channel Dim].[Hierarchy].[Country]" caption="Country" numFmtId="0" hierarchy="3" level="1">
@@ -3481,7 +6746,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="[Channel Dim].[Hierarchy].[City]" caption="City" numFmtId="0" hierarchy="3" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+      <sharedItems count="4">
+        <s v="[Channel Dim].[Hierarchy].[Country].&amp;[Algeria].&amp;[]" c=""/>
+        <s v="[Channel Dim].[Hierarchy].[Country].&amp;[Egypt].&amp;[Cairo]" c="Cairo"/>
+        <s v="[Channel Dim].[Hierarchy].[Country].&amp;[France].&amp;[Lyon]" c="Lyon"/>
+        <s v="[Channel Dim].[Hierarchy].[Country].&amp;[Moraco].&amp;[]" c=""/>
+      </sharedItems>
     </cacheField>
     <cacheField name="[Time Dim 2].[Hierarchy 1].[Calendar Year]" caption="Calendar Year" numFmtId="0" hierarchy="21" level="1">
       <sharedItems count="2">
@@ -3515,7 +6785,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="[Product Dim 2].[Hierarchy].[Product Price]" caption="Product Price" numFmtId="0" hierarchy="9" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+      <sharedItems count="1">
+        <s v="[Product Dim 2].[Hierarchy].[Product Category].&amp;[Category1].&amp;[Accesories].&amp;[1.E1]" c="10"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="31">
@@ -3635,18 +6907,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0B727E3-DF10-483C-8880-788F9F3FE011}" name="PivotTable1" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="A1:O19" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0B727E3-DF10-483C-8880-788F9F3FE011}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A1:AQ16" firstHeaderRow="1" firstDataRow="7" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="4">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="2">
         <item c="1" x="0"/>
@@ -3654,7 +6933,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -3665,53 +6944,42 @@
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="3">
-        <item c="1" x="0"/>
+        <item c="1" x="0" d="1"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="2">
-        <item c="1" x="0"/>
+        <item c="1" x="0" d="1"/>
         <item c="1" x="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
-    <field x="4"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
@@ -3720,61 +6988,183 @@
       <x v="3"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="3">
+  <colFields count="6">
     <field x="2"/>
+    <field x="4"/>
     <field x="-2"/>
     <field x="7"/>
+    <field x="8"/>
+    <field x="9"/>
   </colFields>
-  <colItems count="14">
+  <colItems count="42">
     <i>
       <x/>
       <x/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="2">
+    <i r="3">
       <x v="1"/>
     </i>
-    <i r="2">
+    <i r="3">
       <x v="2"/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-      <x/>
     </i>
     <i r="2" i="1">
       <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="3" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
     </i>
     <i r="2" i="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
       <x/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="2">
+    <i r="3">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-      <x/>
     </i>
     <i r="2" i="1">
       <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="3" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
     </i>
     <i r="2" i="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="4" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
+      <x v="1"/>
+    </i>
+    <i r="3" i="1">
       <x v="2"/>
     </i>
     <i t="grand">
@@ -3788,7 +7178,7 @@
     <dataField fld="5" baseField="0" baseItem="0"/>
     <dataField fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="14">
+  <chartFormats count="42">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -3983,6 +7373,510 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="0"/>
@@ -4028,12 +7922,12 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
+  <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="3"/>
-    <rowHierarchyUsage hierarchyUsage="17"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="3">
+  <colHierarchiesUsage count="4">
     <colHierarchyUsage hierarchyUsage="21"/>
+    <colHierarchyUsage hierarchyUsage="17"/>
     <colHierarchyUsage hierarchyUsage="-2"/>
     <colHierarchyUsage hierarchyUsage="9"/>
   </colHierarchiesUsage>
@@ -4345,10 +8239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362136D0-22DC-4019-8B20-E917C017D881}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4357,192 +8251,326 @@
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="V2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AP2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AQ2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L4" t="s">
         <v>15</v>
       </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
-        <v>50</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4">
-        <v>60</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>150</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -4550,140 +8578,314 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4">
-        <v>10</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>50</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="4">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>10</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4">
+        <v>210</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>40</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>40</v>
       </c>
-      <c r="O10" s="4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>100</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>30</v>
+      </c>
+      <c r="R11" s="4">
+        <v>20</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4">
+        <v>145</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>20</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>515</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>165</v>
-      </c>
-      <c r="I12" s="4">
-        <v>50</v>
-      </c>
-      <c r="J12" s="4">
-        <v>50</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>375</v>
-      </c>
-      <c r="O12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4699,10 +8901,54 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4">
+        <v>25</v>
+      </c>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4">
+        <v>60</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4710,183 +8956,240 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="C15" s="4">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="N14" s="4">
-        <v>35</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>25</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
+        <v>30</v>
+      </c>
+      <c r="W15" s="4">
+        <v>15</v>
+      </c>
+      <c r="X15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>25</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="Y15" s="4">
         <v>1</v>
       </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4">
+        <v>105</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
         <v>30</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C16" s="4">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <v>20</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="I16" s="4">
+        <v>80</v>
+      </c>
+      <c r="J16" s="4">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
+      <c r="M16" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="4">
         <v>30</v>
       </c>
-      <c r="I17" s="4">
+      <c r="R16" s="4">
+        <v>30</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
+        <v>30</v>
+      </c>
+      <c r="W16" s="4">
         <v>15</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="X16" s="4">
         <v>1</v>
       </c>
-      <c r="L17" s="4">
+      <c r="Y16" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>95</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="Z16" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>55</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>70</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="AG16" s="4">
         <v>1</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>10</v>
-      </c>
-      <c r="O18" s="4">
+      <c r="AH16" s="4">
+        <v>155</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>75</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>50</v>
+      </c>
+      <c r="AL16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4">
-        <v>220</v>
-      </c>
-      <c r="C19" s="4">
-        <v>110</v>
-      </c>
-      <c r="D19" s="4">
-        <v>50</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="AM16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="AO16" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="4">
-        <v>270</v>
-      </c>
-      <c r="I19" s="4">
-        <v>160</v>
-      </c>
-      <c r="J19" s="4">
-        <v>80</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="AP16" s="4">
         <v>890</v>
       </c>
-      <c r="O19" s="4">
+      <c r="AQ16" s="4">
         <v>5</v>
       </c>
     </row>
